--- a/员工归档/工作输出/杨晨/2017年春季班课收费标准.xlsx
+++ b/员工归档/工作输出/杨晨/2017年春季班课收费标准.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
   <si>
     <t>2017年春季收费标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,70 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                        备注：开课时间2月20日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低开班人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中部收费标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地、生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间（周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语数外物化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名热线：0718-7233305 17762313777   报名地址：尚熙空间三楼（实验小学后面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时报两科1100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +420,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,7 +437,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -462,6 +534,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -471,7 +605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +651,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -559,6 +720,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,6 +732,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,16 +747,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,23 +1112,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -953,10 +1150,10 @@
       <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="9" t="s">
         <v>38</v>
       </c>
@@ -975,60 +1172,60 @@
       <c r="M2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="23"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="27">
         <v>28</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="27">
         <v>18</v>
       </c>
       <c r="F3" s="10">
         <v>360</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="27">
         <v>580</v>
       </c>
-      <c r="H3" s="18">
-        <v>4</v>
-      </c>
-      <c r="I3" s="18">
-        <v>1</v>
-      </c>
-      <c r="J3" s="18">
+      <c r="H3" s="27">
+        <v>4</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27">
         <f>E3*G3*H3*I3</f>
         <v>41760</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="27">
         <v>336080</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="27">
         <v>77</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="24" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1039,25 +1236,25 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="10">
         <v>360</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1066,40 +1263,40 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="27">
         <v>28</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="27">
         <v>18</v>
       </c>
       <c r="F5" s="10">
         <v>360</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="27">
         <v>580</v>
       </c>
-      <c r="H5" s="18">
-        <v>4</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1</v>
-      </c>
-      <c r="J5" s="18">
+      <c r="H5" s="27">
+        <v>4</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1</v>
+      </c>
+      <c r="J5" s="27">
         <f>E5*G5*H5*I5</f>
         <v>41760</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
       <c r="P5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1108,25 +1305,25 @@
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="10">
         <v>360</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="4" t="s">
         <v>34</v>
       </c>
@@ -1135,8 +1332,8 @@
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1145,30 +1342,30 @@
       <c r="D7" s="5">
         <v>28</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="27">
         <v>18</v>
       </c>
       <c r="F7" s="10">
         <v>360</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="27">
         <v>580</v>
       </c>
-      <c r="H7" s="18">
-        <v>4</v>
-      </c>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
-      <c r="J7" s="18">
+      <c r="H7" s="27">
+        <v>4</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
+      <c r="J7" s="27">
         <f>E7*G7*H7*I7</f>
         <v>41760</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
       <c r="P7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1177,35 +1374,35 @@
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>28</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="10">
         <v>360</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1231,19 +1428,19 @@
         <f>E9*G9*H9*I9</f>
         <v>38880</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1252,65 +1449,65 @@
       <c r="D10" s="5">
         <v>28</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="27">
         <v>18</v>
       </c>
       <c r="F10" s="10">
         <v>360</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="27">
         <v>580</v>
       </c>
-      <c r="H10" s="18">
-        <v>4</v>
-      </c>
-      <c r="I10" s="18">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18">
+      <c r="H10" s="27">
+        <v>4</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
+      <c r="J10" s="27">
         <f>E10*G10*H10*I10</f>
         <v>41760</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>28</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="10">
         <v>360</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1336,19 +1533,19 @@
         <f>E12*G12*H12*I12</f>
         <v>38880</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1357,65 +1554,65 @@
       <c r="D13" s="5">
         <v>28</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="27">
         <v>18</v>
       </c>
       <c r="F13" s="10">
         <v>360</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="27">
         <v>580</v>
       </c>
-      <c r="H13" s="18">
-        <v>4</v>
-      </c>
-      <c r="I13" s="18">
-        <v>1</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="H13" s="27">
+        <v>4</v>
+      </c>
+      <c r="I13" s="27">
+        <v>1</v>
+      </c>
+      <c r="J13" s="27">
         <f>E13*G13*H13*I13</f>
         <v>41760</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1">
         <v>28</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="10">
         <v>360</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1441,19 +1638,19 @@
         <f>E15*G15*H15*I15</f>
         <v>38880</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1462,65 +1659,65 @@
       <c r="D16" s="1">
         <v>28</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="27">
         <v>18</v>
       </c>
       <c r="F16" s="10">
         <v>360</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="27">
         <v>580</v>
       </c>
-      <c r="H16" s="18">
-        <v>4</v>
-      </c>
-      <c r="I16" s="18">
-        <v>1</v>
-      </c>
-      <c r="J16" s="18">
+      <c r="H16" s="27">
+        <v>4</v>
+      </c>
+      <c r="I16" s="27">
+        <v>1</v>
+      </c>
+      <c r="J16" s="27">
         <f>E16*G16*H16*I16</f>
         <v>41760</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1">
         <v>28</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="10">
         <v>360</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" ht="30" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1546,18 +1743,18 @@
         <f>E18*G18*H18*I18</f>
         <v>38880</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="16"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="25"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1595,18 +1792,18 @@
         <v>38400</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="16"/>
+      <c r="O19" s="25"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1621,35 +1818,35 @@
       <c r="F20" s="10">
         <v>1600</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="27">
         <v>3200</v>
       </c>
-      <c r="H20" s="18">
-        <v>4</v>
-      </c>
-      <c r="I20" s="18">
-        <v>1</v>
-      </c>
-      <c r="J20" s="18">
+      <c r="H20" s="27">
+        <v>4</v>
+      </c>
+      <c r="I20" s="27">
+        <v>1</v>
+      </c>
+      <c r="J20" s="27">
         <v>76800</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="27">
         <v>67200</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="16"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="25"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1662,25 +1859,25 @@
       <c r="F21" s="10">
         <v>1920</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="19"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="1">
         <v>6</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="16"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="25"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1695,37 +1892,37 @@
       <c r="F22" s="10">
         <v>1920</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="27">
         <v>3400</v>
       </c>
-      <c r="H22" s="18">
-        <v>4</v>
-      </c>
-      <c r="I22" s="18">
-        <v>1</v>
-      </c>
-      <c r="J22" s="18">
+      <c r="H22" s="27">
+        <v>4</v>
+      </c>
+      <c r="I22" s="27">
+        <v>1</v>
+      </c>
+      <c r="J22" s="27">
         <v>76800</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="27">
         <v>57600</v>
       </c>
       <c r="M22" s="1">
         <v>6</v>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="16"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="25"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1738,27 +1935,27 @@
       <c r="F23" s="10">
         <v>1920</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="1">
         <v>6</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="16"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="25"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1794,16 +1991,16 @@
       <c r="M24" s="1">
         <v>8</v>
       </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="16"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="25"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1837,16 +2034,16 @@
       <c r="M25" s="1">
         <v>8</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="16"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="25"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1882,16 +2079,16 @@
       <c r="M26" s="1">
         <v>8</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="16"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="25"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1925,25 +2122,25 @@
       <c r="M27" s="1">
         <v>8</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="17"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="26"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="23"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="1">
         <f>SUM(J3:J27)</f>
         <v>802880</v>
@@ -2040,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -2086,10 +2283,10 @@
       <c r="E2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="11" t="s">
         <v>38</v>
       </c>
@@ -2098,94 +2295,94 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="42" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="42">
         <v>28</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="42">
         <v>18</v>
       </c>
       <c r="F3" s="11">
-        <v>260</v>
-      </c>
-      <c r="G3" s="35">
+        <v>200</v>
+      </c>
+      <c r="G3" s="42">
         <v>420</v>
       </c>
-      <c r="H3" s="35">
-        <v>4</v>
-      </c>
-      <c r="I3" s="35">
+      <c r="H3" s="42">
+        <v>4</v>
+      </c>
+      <c r="I3" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5">
-      <c r="A4" s="37"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="11">
-        <v>260</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+        <v>200</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="13.5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="42">
         <v>28</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="42">
         <v>18</v>
       </c>
       <c r="F5" s="11">
         <v>260</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="42">
         <v>420</v>
       </c>
-      <c r="H5" s="35">
-        <v>4</v>
-      </c>
-      <c r="I5" s="35">
+      <c r="H5" s="42">
+        <v>4</v>
+      </c>
+      <c r="I5" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="11">
         <v>260</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" ht="13.5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="39" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -2194,42 +2391,42 @@
       <c r="D7" s="13">
         <v>28</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="39">
         <v>18</v>
       </c>
       <c r="F7" s="13">
         <v>260</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="39">
         <v>420</v>
       </c>
-      <c r="H7" s="29">
-        <v>4</v>
-      </c>
-      <c r="I7" s="29">
+      <c r="H7" s="39">
+        <v>4</v>
+      </c>
+      <c r="I7" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="13">
         <v>28</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="13">
         <v>260</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="13.5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="13" t="s">
         <v>56</v>
       </c>
@@ -2253,8 +2450,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="39" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2263,42 +2460,42 @@
       <c r="D10" s="13">
         <v>28</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="39">
         <v>18</v>
       </c>
       <c r="F10" s="13">
         <v>260</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="39">
         <v>420</v>
       </c>
-      <c r="H10" s="29">
-        <v>4</v>
-      </c>
-      <c r="I10" s="29">
+      <c r="H10" s="39">
+        <v>4</v>
+      </c>
+      <c r="I10" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5">
-      <c r="A11" s="37"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="13">
         <v>28</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="13">
         <v>260</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="13.5">
-      <c r="A12" s="37"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2519,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5">
-      <c r="A13" s="37"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -2332,42 +2529,42 @@
       <c r="D13" s="13">
         <v>28</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="39">
         <v>18</v>
       </c>
       <c r="F13" s="13">
         <v>260</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="39">
         <v>420</v>
       </c>
-      <c r="H13" s="29">
-        <v>4</v>
-      </c>
-      <c r="I13" s="29">
+      <c r="H13" s="39">
+        <v>4</v>
+      </c>
+      <c r="I13" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5">
-      <c r="A14" s="37"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="13">
         <v>28</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="13">
         <v>260</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:9" ht="13.5">
-      <c r="A15" s="37"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="13" t="s">
         <v>56</v>
       </c>
@@ -2391,8 +2588,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5">
-      <c r="A16" s="37"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="42" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2401,42 +2598,42 @@
       <c r="D16" s="11">
         <v>28</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="42">
         <v>18</v>
       </c>
       <c r="F16" s="11">
         <v>260</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="42">
         <v>420</v>
       </c>
-      <c r="H16" s="35">
-        <v>4</v>
-      </c>
-      <c r="I16" s="35">
+      <c r="H16" s="42">
+        <v>4</v>
+      </c>
+      <c r="I16" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="11">
         <v>28</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="11">
         <v>260</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" ht="13.5">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
@@ -2460,7 +2657,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2489,8 +2686,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5">
-      <c r="A20" s="30"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -2505,19 +2702,19 @@
       <c r="F20" s="13">
         <v>1600</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="39">
         <v>3200</v>
       </c>
-      <c r="H20" s="29">
-        <v>4</v>
-      </c>
-      <c r="I20" s="29">
+      <c r="H20" s="39">
+        <v>4</v>
+      </c>
+      <c r="I20" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="13" t="s">
         <v>19</v>
       </c>
@@ -2530,13 +2727,13 @@
       <c r="F21" s="13">
         <v>1920</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:9" ht="13.5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -2551,19 +2748,19 @@
       <c r="F22" s="13">
         <v>1920</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="39">
         <v>3400</v>
       </c>
-      <c r="H22" s="29">
-        <v>4</v>
-      </c>
-      <c r="I22" s="29">
+      <c r="H22" s="39">
+        <v>4</v>
+      </c>
+      <c r="I22" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.5">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="13" t="s">
         <v>62</v>
       </c>
@@ -2576,15 +2773,15 @@
       <c r="F23" s="13">
         <v>1920</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="42" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -2610,8 +2807,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.5">
-      <c r="A25" s="37"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="11" t="s">
         <v>22</v>
       </c>
@@ -2635,8 +2832,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.5">
-      <c r="A26" s="37"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -2662,8 +2859,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="11" t="s">
         <v>22</v>
       </c>
@@ -2687,17 +2884,17 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.5">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -2716,26 +2913,23 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="B20:B21"/>
@@ -2749,6 +2943,9 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2758,14 +2955,235 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="17">
+        <v>32</v>
+      </c>
+      <c r="D3" s="17">
+        <v>40</v>
+      </c>
+      <c r="E3" s="17">
+        <v>640</v>
+      </c>
+      <c r="F3" s="17">
+        <v>16</v>
+      </c>
+      <c r="G3" s="17">
+        <v>19</v>
+      </c>
+      <c r="H3" s="17">
+        <v>8085</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="17">
+        <v>32</v>
+      </c>
+      <c r="D4" s="17">
+        <v>40</v>
+      </c>
+      <c r="E4" s="17">
+        <v>640</v>
+      </c>
+      <c r="F4" s="17">
+        <v>16</v>
+      </c>
+      <c r="G4" s="17">
+        <v>19</v>
+      </c>
+      <c r="H4" s="17">
+        <v>8085</v>
+      </c>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="17">
+        <v>32</v>
+      </c>
+      <c r="D5" s="17">
+        <v>40</v>
+      </c>
+      <c r="E5" s="17">
+        <v>640</v>
+      </c>
+      <c r="F5" s="17">
+        <v>16</v>
+      </c>
+      <c r="G5" s="17">
+        <v>16</v>
+      </c>
+      <c r="H5" s="17">
+        <v>10752</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="17">
+        <v>56</v>
+      </c>
+      <c r="D6" s="17">
+        <v>40</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="17">
+        <v>14</v>
+      </c>
+      <c r="G6" s="17">
+        <v>15</v>
+      </c>
+      <c r="H6" s="17">
+        <v>21000</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="17">
+        <v>112</v>
+      </c>
+      <c r="D7" s="17">
+        <v>40</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="17">
+        <v>14</v>
+      </c>
+      <c r="G7" s="17">
+        <v>24</v>
+      </c>
+      <c r="H7" s="17">
+        <v>16800</v>
+      </c>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/员工归档/工作输出/杨晨/2017年春季班课收费标准.xlsx
+++ b/员工归档/工作输出/杨晨/2017年春季班课收费标准.xlsx
@@ -605,7 +605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +678,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -687,69 +717,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,6 +785,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,23 +1118,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -1150,10 +1156,10 @@
       <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="9" t="s">
         <v>38</v>
       </c>
@@ -1172,60 +1178,60 @@
       <c r="M2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="32"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>28</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>18</v>
       </c>
       <c r="F3" s="10">
         <v>360</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="26">
         <v>580</v>
       </c>
-      <c r="H3" s="27">
-        <v>4</v>
-      </c>
-      <c r="I3" s="27">
-        <v>1</v>
-      </c>
-      <c r="J3" s="27">
+      <c r="H3" s="26">
+        <v>4</v>
+      </c>
+      <c r="I3" s="26">
+        <v>1</v>
+      </c>
+      <c r="J3" s="26">
         <f>E3*G3*H3*I3</f>
         <v>41760</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="26">
         <v>336080</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="26">
         <v>77</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="34" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1237,24 +1243,24 @@
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1">
       <c r="A4" s="29"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="10">
         <v>360</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
       <c r="P4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1264,39 +1270,39 @@
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>28</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>18</v>
       </c>
       <c r="F5" s="10">
         <v>360</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <v>580</v>
       </c>
-      <c r="H5" s="27">
-        <v>4</v>
-      </c>
-      <c r="I5" s="27">
-        <v>1</v>
-      </c>
-      <c r="J5" s="27">
+      <c r="H5" s="26">
+        <v>4</v>
+      </c>
+      <c r="I5" s="26">
+        <v>1</v>
+      </c>
+      <c r="J5" s="26">
         <f>E5*G5*H5*I5</f>
         <v>41760</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
       <c r="P5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1306,24 +1312,24 @@
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="10">
         <v>360</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
       <c r="P6" s="4" t="s">
         <v>34</v>
       </c>
@@ -1333,7 +1339,7 @@
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="29"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1342,30 +1348,30 @@
       <c r="D7" s="5">
         <v>28</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>18</v>
       </c>
       <c r="F7" s="10">
         <v>360</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>580</v>
       </c>
-      <c r="H7" s="27">
-        <v>4</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
-      <c r="J7" s="27">
+      <c r="H7" s="26">
+        <v>4</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1</v>
+      </c>
+      <c r="J7" s="26">
         <f>E7*G7*H7*I7</f>
         <v>41760</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1382,19 +1388,19 @@
       <c r="D8" s="1">
         <v>28</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="10">
         <v>360</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1402,7 +1408,7 @@
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="29"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1431,8 +1437,8 @@
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1440,7 +1446,7 @@
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="29"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1449,30 +1455,30 @@
       <c r="D10" s="5">
         <v>28</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>18</v>
       </c>
       <c r="F10" s="10">
         <v>360</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <v>580</v>
       </c>
-      <c r="H10" s="27">
-        <v>4</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
-      <c r="J10" s="27">
+      <c r="H10" s="26">
+        <v>4</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26">
         <f>E10*G10*H10*I10</f>
         <v>41760</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1487,19 +1493,19 @@
       <c r="D11" s="1">
         <v>28</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="10">
         <v>360</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
       <c r="A12" s="29"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1536,8 +1542,8 @@
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1545,7 +1551,7 @@
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
       <c r="A13" s="29"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1554,30 +1560,30 @@
       <c r="D13" s="5">
         <v>28</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>18</v>
       </c>
       <c r="F13" s="10">
         <v>360</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <v>580</v>
       </c>
-      <c r="H13" s="27">
-        <v>4</v>
-      </c>
-      <c r="I13" s="27">
-        <v>1</v>
-      </c>
-      <c r="J13" s="27">
+      <c r="H13" s="26">
+        <v>4</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="J13" s="26">
         <f>E13*G13*H13*I13</f>
         <v>41760</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1592,19 +1598,19 @@
       <c r="D14" s="1">
         <v>28</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="10">
         <v>360</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1641,8 +1647,8 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -1650,7 +1656,7 @@
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1659,30 +1665,30 @@
       <c r="D16" s="1">
         <v>28</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <v>18</v>
       </c>
       <c r="F16" s="10">
         <v>360</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <v>580</v>
       </c>
-      <c r="H16" s="27">
-        <v>4</v>
-      </c>
-      <c r="I16" s="27">
-        <v>1</v>
-      </c>
-      <c r="J16" s="27">
+      <c r="H16" s="26">
+        <v>4</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
+      <c r="J16" s="26">
         <f>E16*G16*H16*I16</f>
         <v>41760</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1697,27 +1703,27 @@
       <c r="D17" s="1">
         <v>28</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="10">
         <v>360</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" ht="30" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1743,18 +1749,18 @@
         <f>E18*G18*H18*I18</f>
         <v>38880</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="25"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="35"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1792,10 +1798,10 @@
         <v>38400</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="25"/>
+      <c r="O19" s="35"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1803,7 +1809,7 @@
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1818,27 +1824,27 @@
       <c r="F20" s="10">
         <v>1600</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <v>3200</v>
       </c>
-      <c r="H20" s="27">
-        <v>4</v>
-      </c>
-      <c r="I20" s="27">
-        <v>1</v>
-      </c>
-      <c r="J20" s="27">
+      <c r="H20" s="26">
+        <v>4</v>
+      </c>
+      <c r="I20" s="26">
+        <v>1</v>
+      </c>
+      <c r="J20" s="26">
         <v>76800</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="26">
         <v>67200</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="25"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="35"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -1846,7 +1852,7 @@
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1859,17 +1865,17 @@
       <c r="F21" s="10">
         <v>1920</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="28"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="1">
         <v>6</v>
       </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="25"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="35"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -1877,7 +1883,7 @@
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1892,37 +1898,37 @@
       <c r="F22" s="10">
         <v>1920</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="26">
         <v>3400</v>
       </c>
-      <c r="H22" s="27">
-        <v>4</v>
-      </c>
-      <c r="I22" s="27">
-        <v>1</v>
-      </c>
-      <c r="J22" s="27">
+      <c r="H22" s="26">
+        <v>4</v>
+      </c>
+      <c r="I22" s="26">
+        <v>1</v>
+      </c>
+      <c r="J22" s="26">
         <v>76800</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="26">
         <v>57600</v>
       </c>
       <c r="M22" s="1">
         <v>6</v>
       </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="25"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="35"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1935,27 +1941,27 @@
       <c r="F23" s="10">
         <v>1920</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="1">
         <v>6</v>
       </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="25"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="35"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1991,8 +1997,8 @@
       <c r="M24" s="1">
         <v>8</v>
       </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="25"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="35"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -2000,7 +2006,7 @@
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
@@ -2034,8 +2040,8 @@
       <c r="M25" s="1">
         <v>8</v>
       </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="25"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="35"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -2043,7 +2049,7 @@
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2079,16 +2085,16 @@
       <c r="M26" s="1">
         <v>8</v>
       </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="25"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="35"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2122,25 +2128,25 @@
       <c r="M27" s="1">
         <v>8</v>
       </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="26"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="32"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="1">
         <f>SUM(J3:J27)</f>
         <v>802880</v>
@@ -2158,13 +2164,51 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="N3:N18"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L18"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="O3:O27"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="M3:M18"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="K3:K18"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="A3:A18"/>
@@ -2181,51 +2225,13 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="K3:K18"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="O3:O27"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="M3:M18"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="N3:N18"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L18"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2255,17 +2261,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="13.5">
       <c r="A2" s="11" t="s">
@@ -2283,10 +2289,10 @@
       <c r="E2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="46"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="11" t="s">
         <v>38</v>
       </c>
@@ -2295,94 +2301,94 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="40">
         <v>28</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="40">
         <v>18</v>
       </c>
       <c r="F3" s="11">
         <v>200</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="40">
         <v>420</v>
       </c>
-      <c r="H3" s="42">
-        <v>4</v>
-      </c>
-      <c r="I3" s="42">
+      <c r="H3" s="40">
+        <v>4</v>
+      </c>
+      <c r="I3" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5">
-      <c r="A4" s="47"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="11">
         <v>200</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="13.5">
-      <c r="A5" s="47"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="40" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="40">
         <v>28</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <v>18</v>
       </c>
       <c r="F5" s="11">
         <v>260</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="40">
         <v>420</v>
       </c>
-      <c r="H5" s="42">
-        <v>4</v>
-      </c>
-      <c r="I5" s="42">
+      <c r="H5" s="40">
+        <v>4</v>
+      </c>
+      <c r="I5" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5">
-      <c r="A6" s="47"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="11">
         <v>260</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" ht="13.5">
-      <c r="A7" s="47"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -2391,42 +2397,42 @@
       <c r="D7" s="13">
         <v>28</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="43">
         <v>18</v>
       </c>
       <c r="F7" s="13">
         <v>260</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="43">
         <v>420</v>
       </c>
-      <c r="H7" s="39">
-        <v>4</v>
-      </c>
-      <c r="I7" s="39">
+      <c r="H7" s="43">
+        <v>4</v>
+      </c>
+      <c r="I7" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="13">
         <v>28</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="13">
         <v>260</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" ht="13.5">
-      <c r="A9" s="47"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13" t="s">
         <v>56</v>
       </c>
@@ -2450,8 +2456,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="43" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2460,42 +2466,42 @@
       <c r="D10" s="13">
         <v>28</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="43">
         <v>18</v>
       </c>
       <c r="F10" s="13">
         <v>260</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="43">
         <v>420</v>
       </c>
-      <c r="H10" s="39">
-        <v>4</v>
-      </c>
-      <c r="I10" s="39">
+      <c r="H10" s="43">
+        <v>4</v>
+      </c>
+      <c r="I10" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5">
-      <c r="A11" s="47"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="13">
         <v>28</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="13">
         <v>260</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:9" ht="13.5">
-      <c r="A12" s="47"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
@@ -2519,8 +2525,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5">
-      <c r="A13" s="47"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="43" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -2529,42 +2535,42 @@
       <c r="D13" s="13">
         <v>28</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="43">
         <v>18</v>
       </c>
       <c r="F13" s="13">
         <v>260</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="43">
         <v>420</v>
       </c>
-      <c r="H13" s="39">
-        <v>4</v>
-      </c>
-      <c r="I13" s="39">
+      <c r="H13" s="43">
+        <v>4</v>
+      </c>
+      <c r="I13" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5">
-      <c r="A14" s="47"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="13">
         <v>28</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="13">
         <v>260</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="13.5">
-      <c r="A15" s="47"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="13" t="s">
         <v>56</v>
       </c>
@@ -2588,8 +2594,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5">
-      <c r="A16" s="47"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="40" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2598,42 +2604,42 @@
       <c r="D16" s="11">
         <v>28</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="40">
         <v>18</v>
       </c>
       <c r="F16" s="11">
         <v>260</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="40">
         <v>420</v>
       </c>
-      <c r="H16" s="42">
-        <v>4</v>
-      </c>
-      <c r="I16" s="42">
+      <c r="H16" s="40">
+        <v>4</v>
+      </c>
+      <c r="I16" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="11">
         <v>28</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="11">
         <v>260</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" ht="13.5">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
@@ -2657,7 +2663,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="43" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2686,8 +2692,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5">
-      <c r="A20" s="40"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -2702,19 +2708,19 @@
       <c r="F20" s="13">
         <v>1600</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="43">
         <v>3200</v>
       </c>
-      <c r="H20" s="39">
-        <v>4</v>
-      </c>
-      <c r="I20" s="39">
+      <c r="H20" s="43">
+        <v>4</v>
+      </c>
+      <c r="I20" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.5">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="13" t="s">
         <v>19</v>
       </c>
@@ -2727,13 +2733,13 @@
       <c r="F21" s="13">
         <v>1920</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="1:9" ht="13.5">
-      <c r="A22" s="40"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -2748,19 +2754,19 @@
       <c r="F22" s="13">
         <v>1920</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="43">
         <v>3400</v>
       </c>
-      <c r="H22" s="39">
-        <v>4</v>
-      </c>
-      <c r="I22" s="39">
+      <c r="H22" s="43">
+        <v>4</v>
+      </c>
+      <c r="I22" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.5">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="13" t="s">
         <v>62</v>
       </c>
@@ -2773,15 +2779,15 @@
       <c r="F23" s="13">
         <v>1920</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -2807,8 +2813,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.5">
-      <c r="A25" s="47"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="11" t="s">
         <v>22</v>
       </c>
@@ -2832,8 +2838,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.5">
-      <c r="A26" s="47"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="40" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -2859,8 +2865,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="11" t="s">
         <v>22</v>
       </c>
@@ -2884,20 +2890,52 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.5">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="B3:B4"/>
@@ -2914,38 +2952,6 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2955,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2973,7 +2979,7 @@
     <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="54" t="s">
         <v>68</v>
       </c>
@@ -2986,7 +2992,7 @@
       <c r="H1" s="55"/>
       <c r="I1" s="56"/>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="58" t="s">
         <v>80</v>
       </c>
@@ -3043,8 +3049,9 @@
       <c r="I3" s="57" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="58"/>
       <c r="B4" s="19" t="s">
         <v>71</v>
@@ -3067,9 +3074,10 @@
       <c r="H4" s="17">
         <v>8085</v>
       </c>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I4" s="28"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="59"/>
       <c r="B5" s="19" t="s">
         <v>78</v>
@@ -3093,8 +3101,9 @@
         <v>10752</v>
       </c>
       <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="K5" s="60"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>79</v>
       </c>
@@ -3120,8 +3129,9 @@
         <v>21000</v>
       </c>
       <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="K6" s="60"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>74</v>
       </c>
@@ -3147,8 +3157,9 @@
         <v>16800</v>
       </c>
       <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="48" t="s">
         <v>77</v>
       </c>
@@ -3160,8 +3171,9 @@
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
       <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="51"/>
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
@@ -3172,7 +3184,7 @@
       <c r="H9" s="52"/>
       <c r="I9" s="53"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="C12" s="22"/>
     </row>
   </sheetData>
